--- a/biology/Botanique/Rhododendron_arboreum/Rhododendron_arboreum.xlsx
+++ b/biology/Botanique/Rhododendron_arboreum/Rhododendron_arboreum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhododendron arboreum, aussi nommé Burans, Laligurans ou simplement Gurans (en népalais गुराँस) au Népal, est une espèce de plantes à fleurs de la famille des Ericaceae. C’est un arbuste (et parfois même un arbre).
-Cette espèce a été décrite pour la première fois en 1805 par le botaniste britannique James Edward Smith (1759-1828)[1].  
+Cette espèce a été décrite pour la première fois en 1805 par le botaniste britannique James Edward Smith (1759-1828).  
 L'espèce est trouvée au Bhoutan, en Chine, en Inde, au Myanmar, au Népal, au Sri Lanka, au Pakistan et en Thaïlande. La fleur est l'emblème national du Népal. En Inde, l'arbre est l’emblème de l'état du l'Uttarakhand et la fleur est l'emblème de l'état du Nagaland. 
 </t>
         </is>
@@ -513,19 +525,21 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (4 mars 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (4 mars 2014) :
 sous-espèce Rhododendron arboreum subsp. albotomentosum
 sous-espèce Rhododendron arboreum subsp. arboreum
 sous-espèce Rhododendron arboreum subsp. nilagiricum
 sous-espèce Rhododendron arboreum subsp. zeylanicum
 variété Rhododendron arboreum var. cinnamomeum
 variété Rhododendron arboreum var. roseum
-Selon The Plant List            (4 mars 2014)[1] :
+Selon The Plant List            (4 mars 2014) :
 variété Rhododendron arboreum var. cinnamomeum (Wall. ex G. Don) Lindl.
 variété Rhododendron arboreum var. roseum Lindl.
-Selon Tropicos                                           (4 mars 2014)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (4 mars 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Rhododendron arboreum subsp. campbelliae (Hook. f.) Tagg
 sous-espèce Rhododendron arboreum subsp. cinnamomeum (Wall. ex G. Don) Tagg
 sous-espèce Rhododendron arboreum subsp. delavayi (Franch.) D.F. Chamb.
